--- a/NonConsumableLogs.xlsx
+++ b/NonConsumableLogs.xlsx
@@ -125,8 +125,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ExportTable" displayName="ExportTable" ref="A8:Q11" headerRowCount="1">
-  <autoFilter ref="A8:Q11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ExportTable" displayName="ExportTable" ref="A8:Q10" headerRowCount="1">
+  <autoFilter ref="A8:Q10"/>
   <tableColumns count="17">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="ProductName"/>
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,7 +562,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -589,7 +589,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-02-16 14:16:21</t>
+          <t>2026-02-17 05:32:03</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -641,7 +641,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -663,12 +663,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Opened</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-02-16 14:16:50</t>
+          <t>2026-02-18 04:55:12</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -713,85 +713,6 @@
         </is>
       </c>
       <c r="Q10" t="inlineStr">
-        <is>
-          <t>ada</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Jell</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2026-01-01</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>RR</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Opened</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2026-02-16 14:17:13</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>2</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>ada</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>ada</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
         <is>
           <t>ada</t>
         </is>
